--- a/Mapping_Doc.xlsx
+++ b/Mapping_Doc.xlsx
@@ -420,7 +420,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
